--- a/Opencart.xlsx
+++ b/Opencart.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uuuser\Documents\Jobs\JAVA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{24958CD8-AB90-474C-9983-8549683E243A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD552514-CA60-4DE8-8A66-8F9CCFF2EC3C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14220" windowHeight="12195" xr2:uid="{C5F8C1F8-F6CC-4E24-A78C-C7C0F5AC6139}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14220" windowHeight="12195" activeTab="1" xr2:uid="{C5F8C1F8-F6CC-4E24-A78C-C7C0F5AC6139}"/>
   </bookViews>
   <sheets>
     <sheet name="Opencart" sheetId="2" r:id="rId1"/>
@@ -671,7 +671,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{451B4BED-266A-4175-8429-23E9B5EF73EF}">
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
@@ -1047,8 +1047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C07DC1D9-63BC-495C-AC27-1B86E901488A}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:K10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
